--- a/outputs_aai/aai_executive_summary.xlsx
+++ b/outputs_aai/aai_executive_summary.xlsx
@@ -88977,7 +88977,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-24 17:55:05</t>
+          <t>2025-10-24 18:44:53</t>
         </is>
       </c>
     </row>
